--- a/containers.xlsx
+++ b/containers.xlsx
@@ -1,99 +1,462 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullPrecision="1" calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>CCLU3954642</t>
-  </si>
-  <si>
-    <t>MEDU1841859</t>
-  </si>
-  <si>
-    <t>MEDU6566805</t>
-  </si>
-  <si>
-    <t>TGHU3462720</t>
-  </si>
-  <si>
-    <t>MEDU1149650</t>
-  </si>
-  <si>
-    <t>TRHU3541353</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92" count="174">
+  <si>
+    <t>CMAU0845698</t>
+  </si>
+  <si>
+    <t>TTNU1167140</t>
+  </si>
+  <si>
+    <t>TEMU3176750</t>
+  </si>
+  <si>
+    <t>SEGU1989781</t>
+  </si>
+  <si>
+    <t>APZU3336370</t>
+  </si>
+  <si>
+    <t>CMAU0767867</t>
+  </si>
+  <si>
+    <t>CMAU0596105</t>
+  </si>
+  <si>
+    <t>CMAU3074418</t>
+  </si>
+  <si>
+    <t>TEMU2496934</t>
+  </si>
+  <si>
+    <t>APZU3864839</t>
+  </si>
+  <si>
+    <t>APZU3549842</t>
+  </si>
+  <si>
+    <t>FCIU4122861</t>
+  </si>
+  <si>
+    <t>CAIU3875435</t>
+  </si>
+  <si>
+    <t>CMAU2096496</t>
+  </si>
+  <si>
+    <t>CMAU0923050</t>
+  </si>
+  <si>
+    <t>CMAU1927379</t>
+  </si>
+  <si>
+    <t>TEMU0063468</t>
+  </si>
+  <si>
+    <t>DRYU2361807</t>
+  </si>
+  <si>
+    <t>TCLU7267888</t>
+  </si>
+  <si>
+    <t>BEAU2029675</t>
+  </si>
+  <si>
+    <t>reork5</t>
+  </si>
+  <si>
+    <t>CSLU1680944</t>
+  </si>
+  <si>
+    <t>CCLU3562786</t>
+  </si>
+  <si>
+    <t>SEGU3032079</t>
+  </si>
+  <si>
+    <t>FCIU5956323</t>
+  </si>
+  <si>
+    <t>CBHU5766639</t>
+  </si>
+  <si>
+    <t>CBHU4089127</t>
+  </si>
+  <si>
+    <t>CBHU3471500</t>
+  </si>
+  <si>
+    <t>TRHU3851174</t>
+  </si>
+  <si>
+    <t>CSLU1362727</t>
+  </si>
+  <si>
+    <t>CSNU1127915</t>
+  </si>
+  <si>
+    <t>CXDU1491996</t>
+  </si>
+  <si>
+    <t>FCIU5422014</t>
+  </si>
+  <si>
+    <t>MAN 05</t>
+  </si>
+  <si>
+    <t>FTAU1287908</t>
+  </si>
+  <si>
+    <t>FTAU1288186</t>
+  </si>
+  <si>
+    <t>FTAU1288191</t>
+  </si>
+  <si>
+    <t>FTAU1288397</t>
+  </si>
+  <si>
+    <t>FTAU1288400</t>
+  </si>
+  <si>
+    <t>FTAU1288967</t>
+  </si>
+  <si>
+    <t>FTAU1288972</t>
+  </si>
+  <si>
+    <t>petom6</t>
+  </si>
+  <si>
+    <t>CCLU2979292</t>
+  </si>
+  <si>
+    <t>OOLU1071599</t>
+  </si>
+  <si>
+    <t>CSLU1294284</t>
+  </si>
+  <si>
+    <t>OOLU0469150</t>
+  </si>
+  <si>
+    <t>UETU2516071</t>
+  </si>
+  <si>
+    <t>UETU2318369</t>
+  </si>
+  <si>
+    <t>CBHU4272441</t>
+  </si>
+  <si>
+    <t>FCIU5482667</t>
+  </si>
+  <si>
+    <t>TEMU3135319</t>
+  </si>
+  <si>
+    <t>WBPU2018493</t>
+  </si>
+  <si>
+    <t>TEMU4837264</t>
+  </si>
+  <si>
+    <t>CSLU2444481</t>
+  </si>
+  <si>
+    <t>MAGU2484188</t>
+  </si>
+  <si>
+    <t>TCKU1931992</t>
+  </si>
+  <si>
+    <t>CSLU2124744</t>
+  </si>
+  <si>
+    <t>DFSU2458655</t>
+  </si>
+  <si>
+    <t>UETU2545130</t>
+  </si>
+  <si>
+    <t>UETU2451026</t>
+  </si>
+  <si>
+    <t>CSLU2029520</t>
+  </si>
+  <si>
+    <t>DRYU2424551</t>
+  </si>
+  <si>
+    <t>SEGU1522652</t>
+  </si>
+  <si>
+    <t>OOLU1972597</t>
+  </si>
+  <si>
+    <t>CCLU3671088</t>
+  </si>
+  <si>
+    <t>CBHU5714276</t>
+  </si>
+  <si>
+    <t>TEMU3546984</t>
+  </si>
+  <si>
+    <t>CSNU1186780</t>
+  </si>
+  <si>
+    <t>BEAU2261253</t>
+  </si>
+  <si>
+    <t>GLDU5692561</t>
+  </si>
+  <si>
+    <t>CCLU3573630</t>
+  </si>
+  <si>
+    <t>SEGU2848068</t>
+  </si>
+  <si>
+    <t>CBHU5752614</t>
+  </si>
+  <si>
+    <t>DFSU1171568</t>
+  </si>
+  <si>
+    <t>FCIU4753390</t>
+  </si>
+  <si>
+    <t>SEGU3163525</t>
+  </si>
+  <si>
+    <t>TCKU1008033</t>
+  </si>
+  <si>
+    <t>TGBU2268030</t>
+  </si>
+  <si>
+    <t>CSNU1670096</t>
+  </si>
+  <si>
+    <t>TEMU3384862</t>
+  </si>
+  <si>
+    <t>TRHU3922302</t>
+  </si>
+  <si>
+    <t>TEMU2367665</t>
+  </si>
+  <si>
+    <t>CRAB2</t>
+  </si>
+  <si>
+    <t>OOLU0451737</t>
+  </si>
+  <si>
+    <t>CBHU4428447</t>
+  </si>
+  <si>
+    <t>CSNU1080844</t>
+  </si>
+  <si>
+    <t>RFCU2104308</t>
+  </si>
+  <si>
+    <t>OOLU0470465</t>
+  </si>
+  <si>
+    <t>TRHU2598781</t>
+  </si>
+  <si>
+    <t>UETU2512610</t>
+  </si>
+  <si>
+    <t>BMOU1031076</t>
+  </si>
+  <si>
+    <t>Manila 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFE8E6E3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <color rgb="FFE8E6E3"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Obično 2" xfId="7"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="8"/>
+    <cellStyle name="HeaderStyle" xfId="9"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -283,50 +646,636 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" sqref="C48:C55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" customHeight="1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" customHeight="1">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" customHeight="1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" customHeight="1">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" customHeight="1">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" customHeight="1">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" customHeight="1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" customHeight="1">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" customHeight="1">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" customHeight="1">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" customHeight="1">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" customHeight="1">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" customHeight="1">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" customHeight="1">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" customHeight="1">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" customHeight="1">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" customHeight="1">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" customHeight="1">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" customHeight="1">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" customHeight="1">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" customHeight="1">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" customHeight="1">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" customHeight="1">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" customHeight="1">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" customHeight="1">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" customHeight="1">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" customHeight="1">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" customHeight="1">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" customHeight="1">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" customHeight="1">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" customHeight="1">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" customHeight="1">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" customHeight="1">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" customHeight="1">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" customHeight="1">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" customHeight="1">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" customHeight="1">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" customHeight="1">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" customHeight="1">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" customHeight="1">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" customHeight="1">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" customHeight="1">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" customHeight="1">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" customHeight="1">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" customHeight="1">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" customHeight="1">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" customHeight="1">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" customHeight="1">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" customHeight="1">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" customHeight="1">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" customHeight="1">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" customHeight="1">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" customHeight="1">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" customHeight="1">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" ht="15"/>
+    <row r="57" ht="15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>